--- a/db/Utilizadores.xlsx
+++ b/db/Utilizadores.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -385,6 +385,39 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>jbp</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>jbp</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>5e5c93ad84de56383bc0b0861dc6e03fef0d02ca0f7551402e26869feb64e277</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>fuck</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> fuck</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">fuck
+</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/db/Utilizadores.xlsx
+++ b/db/Utilizadores.xlsx
@@ -408,7 +408,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> fuck</t>
+          <t xml:space="preserve"> fuck    </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">

--- a/db/Utilizadores.xlsx
+++ b/db/Utilizadores.xlsx
@@ -408,7 +408,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> fuck</t>
+          <t xml:space="preserve"> fuck </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">

--- a/db/Utilizadores.xlsx
+++ b/db/Utilizadores.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -418,6 +418,38 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>dadadada</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>dadadsa</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>a03ab19b866fc585b5cb1812a2f63ca861e7e7643ee5d43fd7106b623725fd67</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>123344444</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Gonçalo</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>12312</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/db/Utilizadores.xlsx
+++ b/db/Utilizadores.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,6 +450,40 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>goncalofigueira53@gmail.com</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>a03ab19b866fc585b5cb1812a2f63ca861e7e7643ee5d43fd7106b623725fd67</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>rosa</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>rosadiasgomespinto@gmail.com</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>6fb3cb54b547f801988c75ae311785d7ae430586dfe3c332b9bcababc3250e88</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
